--- a/nhatha/test_data/allow_taking_quiz.xlsx
+++ b/nhatha/test_data/allow_taking_quiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\University\222_ST\Software-Testing\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\University\222_ST\Software-Testing\nhatha\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B6A29-D5BB-431D-80C4-722217047F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678671B-3B32-4628-A908-A056250DEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="791" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="791" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase_1" sheetId="3" r:id="rId1"/>
@@ -274,13 +274,6 @@
     <t>TC-007-008</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Chưa tới hạn cho xem
-- Không đối tượng được xem
-- Chưa hết số lần làm
-- Chưa quá hạn làm
-- Expected: Không được phép làm</t>
-  </si>
-  <si>
     <t>course_name</t>
   </si>
   <si>
@@ -330,6 +323,13 @@
   </si>
   <si>
     <t>Quiz 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Chưa tới hạn cho xem
+- Không thuộc đối tượng được xem
+- Chưa hết số lần làm
+- Chưa quá hạn làm
+- Expected: Không được phép làm</t>
   </si>
 </sst>
 </file>
@@ -714,9 +714,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -727,10 +728,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1414,30 +1414,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="36" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>76</v>
       </c>
       <c r="C2" s="37">
         <v>45052.583333333336</v>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1477,30 +1477,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="37">
         <v>45052.583333333336</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1539,30 +1539,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="37">
         <v>45052.583333333336</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1604,30 +1604,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="37">
         <v>45052.583333333336</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1669,30 +1669,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="37">
         <v>45052.583333333336</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1734,30 +1734,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="37">
         <v>45052.583333333336</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1799,30 +1799,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="37">
         <v>45082.583333333336</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7F5280-FD06-43B2-B161-568CE85EB026}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1864,30 +1864,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
       <c r="B2" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="37">
         <v>45082.583333333336</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z949"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2476,7 @@
       <c r="B17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="47" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="40" t="s">
@@ -2494,14 +2494,14 @@
       <c r="H17" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42" t="s">
+      <c r="J17" s="44"/>
+      <c r="K17" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="40" t="s">
         <v>32</v>
       </c>
@@ -2556,21 +2556,21 @@
       <c r="Z18" s="25"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="5"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
@@ -2794,16 +2794,16 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="29" t="s">
@@ -2819,14 +2819,14 @@
       <c r="I24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="44" t="str">
+      <c r="J24" s="45" t="str">
         <f>IF(COUNTIF(I24:I25,$G$7)&gt;0,$G$7,IF(COUNTIF(I24:I25,$C$7)&gt;0,$C$7,IF(COUNTIF(I24:I25,$D$7)&gt;0,$D$7,IF(COUNTIF(I24:I25,$B$7)&gt;0,IF(COUNTIF(I24:I25,$E$7)&lt;1,$B$7,$F$7),$E$7))))</f>
         <v>Passed</v>
       </c>
       <c r="K24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="44" t="str">
+      <c r="L24" s="45" t="str">
         <f>IF(COUNTIF(K24:K25,$G$7)&gt;0,$G$7,IF(COUNTIF(K24:K25,$C$7)&gt;0,$C$7,IF(COUNTIF(K24:K25,$D$7)&gt;0,$D$7,IF(COUNTIF(K24:K25,$B$7)&gt;0,IF(COUNTIF(K24:K25,$E$7)&lt;1,$B$7,$F$7),$E$7))))</f>
         <v>Passed</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>39</v>
@@ -3006,8 +3006,8 @@
       <c r="F28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>42</v>
+      <c r="G28" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="33" t="s">
@@ -28829,11 +28829,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="L24:L25"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -28841,12 +28838,15 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="L24:L25"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H4">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="&quot;Not Run&quot;">
